--- a/biology/Mycologie/Zygosaccharomyces/Zygosaccharomyces.xlsx
+++ b/biology/Mycologie/Zygosaccharomyces/Zygosaccharomyces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zygosaccharomyces est un genre de levures de la famille des Saccharomycetaceae et ne donnant pas de mycélium, à bourgeonnement multilatéral et ascospores réniformes. Ce sont des anaérobies facultatives, fermentant vigoureusement les sucres et supportant bien l'acidité. Beaucoup supportent bien de fortes concentrations de sucre, d'alcool, d'acide acétique etc.[1]. Ces levures altèrent fréquemment la mayonnaise et les sauces à salades. L'espèce la plus importante est Zygosaccharomyces rouxii.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zygosaccharomyces est un genre de levures de la famille des Saccharomycetaceae et ne donnant pas de mycélium, à bourgeonnement multilatéral et ascospores réniformes. Ce sont des anaérobies facultatives, fermentant vigoureusement les sucres et supportant bien l'acidité. Beaucoup supportent bien de fortes concentrations de sucre, d'alcool, d'acide acétique etc.. Ces levures altèrent fréquemment la mayonnaise et les sauces à salades. L'espèce la plus importante est Zygosaccharomyces rouxii.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (24 janvier 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (24 janvier 2023) :
 Zygosaccharomyces acidifaciens W.J.Nick., 1943
 Zygosaccharomyces amoeboideus Kroemer &amp; Krumbholz, 1931
 Zygosaccharomyces bailii (Lindner) Guillierm., 1912
@@ -619,10 +633,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Zygosaccharomyces B.T.P.Barker, 1901[2], que Bertie Barker (d) (1877-1961) orthographie Zygo-saccharomyces dans sa publication de 1901[3].
-Zygosaccharomyces a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Zygosaccharomyces B.T.P.Barker, 1901, que Bertie Barker (d) (1877-1961) orthographie Zygo-saccharomyces dans sa publication de 1901.
+Zygosaccharomyces a pour synonymes :
 Zygosaccharis Clem. &amp; Shear, 1931</t>
         </is>
       </c>
@@ -651,7 +667,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) B.T.P. Barker, « A conjugating "Yeast" », Philosophical Transactions of the Royal Society of London, Londres, b, vol. 194,‎ 6 juin 1901, p. 467-485 (ISSN 0962-8436, lire en ligne, consulté le 24 janvier 2023).</t>
         </is>
